--- a/invoice_templates/custom.xlsx
+++ b/invoice_templates/custom.xlsx
@@ -83,7 +83,7 @@
         <color indexed="14"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>{{getattr(payee, "contact_person", None)</t>
+      <t>{{payee.contact_person if payee else None</t>
     </r>
     <r>
       <rPr>
@@ -159,7 +159,7 @@
     <t>Adress Line</t>
   </si>
   <si>
-    <t>{{getattr(payee, "address.address_1_eng", None)}}</t>
+    <t>{{payee.address.address_1_eng if payee else None}}</t>
   </si>
   <si>
     <r>
@@ -180,13 +180,13 @@
     </r>
   </si>
   <si>
-    <t>{{getattr(payee, "address.address_2_eng", None)}}</t>
+    <t>{{payee.address.address_2_eng if payee else None}}</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>{{getattr(payee, "address.city_eng", None)}}</t>
+    <t>{{payee.address.city_eng if payee else None}}</t>
   </si>
   <si>
     <t>Postal Code</t>
@@ -219,7 +219,7 @@
     <t>TEL</t>
   </si>
   <si>
-    <t>{{getattr(payee, "phone", None)}}</t>
+    <t>{{payee.phone if payee else None}}</t>
   </si>
   <si>
     <r>
@@ -6079,7 +6079,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="reference_invoice.id"/>
+    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="{{reference_invoice.id}}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811" footer="0.511811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -9789,7 +9789,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="reference_invoice.id"/>
+    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="{{reference_invoice.id}}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811" footer="0.511811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
